--- a/method_stats.xlsx
+++ b/method_stats.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Squared Exponentials" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5994</v>
+        <v>6000</v>
       </c>
       <c r="C2" t="n">
-        <v>33986</v>
+        <v>33919</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5388</v>
+        <v>5623</v>
       </c>
       <c r="C4" t="n">
-        <v>26577</v>
+        <v>26838</v>
       </c>
       <c r="D4" t="n">
-        <v>7423</v>
+        <v>7162</v>
       </c>
       <c r="E4" t="n">
-        <v>612</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5996</v>
+        <v>5986</v>
       </c>
       <c r="C5" t="n">
-        <v>31911</v>
+        <v>32237</v>
       </c>
       <c r="D5" t="n">
-        <v>2089</v>
+        <v>1763</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918</v>
+        <v>1225</v>
       </c>
       <c r="C6" t="n">
-        <v>4193</v>
+        <v>3773</v>
       </c>
       <c r="D6" t="n">
-        <v>12807</v>
+        <v>13227</v>
       </c>
       <c r="E6" t="n">
-        <v>2082</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="7">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1479</v>
+        <v>1572</v>
       </c>
       <c r="C7" t="n">
-        <v>7121</v>
+        <v>7131</v>
       </c>
       <c r="D7" t="n">
-        <v>9879</v>
+        <v>9869</v>
       </c>
       <c r="E7" t="n">
-        <v>1521</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="8">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="E8" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/method_stats.xlsx
+++ b/method_stats.xlsx
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HSICFNGS</t>
+          <t>HSIC_FN_GS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -501,7 +501,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HSICFNGS2</t>
+          <t>HSIC_FN_GS2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="D14" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/method_stats.xlsx
+++ b/method_stats.xlsx
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
